--- a/Datos/Database by set/Set with text box/Xlsx sets/Magic 2010 Promos (PM10).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Magic 2010 Promos (PM10).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,182 +444,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ant Queen</t>
+          <t>('Ant Queen', ['{3}{G}{G}', 'Creature — Insect', '{1}{G}: Create a 1/1 green Insect creature token.', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{3}{G}{G}</t>
+          <t>('Honor of the Pure', ['{1}{W}', 'Enchantment', 'White creatures you control get +1/+1.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Creature — Insect</t>
+          <t>('Mycoid Shepherd', ['{1}{G}{G}{W}', 'Creature — Fungus', 'Whenever Mycoid Shepherd or another creature you control with power 5 or greater dies, you may gain 5 life.', '5/4'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>{1}{G}: Create a 1/1 green Insect creature token.</t>
+          <t>('Naya Sojourners', ['{2}{R}{G}{W}', 'Creature — Elf Shaman', 'When you cycle Naya Sojourners or it dies, you may put a +1/+1 counter on target creature.', 'Cycling {2}{G} ({2}{G}, Discard this card: Draw a card.)', '5/3'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Honor of the Pure</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>{1}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Enchantment</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>White creatures you control get +1/+1.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Mycoid Shepherd</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>{1}{G}{G}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Creature — Fungus</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Whenever Mycoid Shepherd or another creature you control with power 5 or greater dies, you may gain 5 life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>5/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Naya Sojourners</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>{2}{R}{G}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Creature — Elf Shaman</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>When you cycle Naya Sojourners or it dies, you may put a +1/+1 counter on target creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Cycling {2}{G} ({2}{G}, Discard this card: Draw a card.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>5/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Vampire Nocturnus</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>{1}{B}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Creature — Vampire</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Play with the top card of your library revealed.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>As long as the top card of your library is black, Vampire Nocturnus and other Vampire creatures you control get +2/+1 and have flying.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>3/3</t>
+          <t>('Vampire Nocturnus', ['{1}{B}{B}{B}', 'Creature — Vampire', 'Play with the top card of your library revealed.', 'As long as the top card of your library is black, Vampire Nocturnus and other Vampire creatures you control get +2/+1 and have flying.', '3/3'])</t>
         </is>
       </c>
     </row>
